--- a/PUN-DemoBoxs-Analysis.xlsx
+++ b/PUN-DemoBoxs-Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>游戏开始流程</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>250：LobbyProperties（自定义）</t>
-  </si>
-  <si>
-    <t>248：MasterClientId</t>
   </si>
   <si>
     <t>252：Actors</t>
@@ -197,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -219,9 +216,86 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,45 +308,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,41 +344,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,30 +358,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,55 +368,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,121 +488,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +559,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,7 +631,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,62 +654,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1468,8 +1465,8 @@
   <sheetPr/>
   <dimension ref="B1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="V122" sqref="V122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1813,22 +1810,22 @@
     </row>
     <row r="125" spans="4:4">
       <c r="D125" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="4:4">
       <c r="D127" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" spans="4:4">
-      <c r="D128" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="3:3">
@@ -1843,31 +1840,26 @@
     </row>
     <row r="131" spans="3:3">
       <c r="C131" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3">
-      <c r="C133" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="4:4">
-      <c r="D134" t="s">
+    <row r="133" spans="4:4">
+      <c r="D133" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3">
-      <c r="C136" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1876,12 +1868,12 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" spans="3:3">
@@ -1891,7 +1883,7 @@
     </row>
     <row r="140" spans="3:3">
       <c r="C140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="3:3">
@@ -1901,7 +1893,7 @@
     </row>
     <row r="144" spans="3:3">
       <c r="C144" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
